--- a/chipSolver/data/options.xlsx
+++ b/chipSolver/data/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s147057\Documents\GitHub\Chips\chipSolver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D499488B-0E77-484C-A927-1B60365B3587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC7887-B718-40D3-9714-054D5FA00220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,56 +1478,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D23">
-        <v>1.2</v>
-      </c>
-      <c r="E23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9</v>
-      </c>
-      <c r="H23">
-        <v>0.8</v>
-      </c>
-      <c r="I23">
-        <v>0.7</v>
-      </c>
-      <c r="J23">
-        <v>0.7</v>
-      </c>
-      <c r="K23">
-        <v>200</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>0.3</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
@@ -1560,10 +1510,10 @@
         <v>0.7</v>
       </c>
       <c r="K24">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>0.4</v>
@@ -1610,7 +1560,7 @@
         <v>0.7</v>
       </c>
       <c r="K25">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -1819,7 +1769,7 @@
         <v>0.4</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -1969,7 +1919,7 @@
         <v>0.4</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2030,7 +1980,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2060,7 +2010,7 @@
         <v>0.7</v>
       </c>
       <c r="K34">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="L34">
         <v>10</v>
@@ -2075,6 +2025,406 @@
         <v>0</v>
       </c>
       <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D35">
+        <v>1.2</v>
+      </c>
+      <c r="E35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.9</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>0.7</v>
+      </c>
+      <c r="J35">
+        <v>0.7</v>
+      </c>
+      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>0.4</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D36">
+        <v>1.2</v>
+      </c>
+      <c r="E36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.9</v>
+      </c>
+      <c r="H36">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>0.7</v>
+      </c>
+      <c r="J36">
+        <v>0.7</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>0.4</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D37">
+        <v>1.2</v>
+      </c>
+      <c r="E37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.9</v>
+      </c>
+      <c r="H37">
+        <v>0.8</v>
+      </c>
+      <c r="I37">
+        <v>0.7</v>
+      </c>
+      <c r="J37">
+        <v>0.7</v>
+      </c>
+      <c r="K37">
+        <v>300</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>0.4</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D38">
+        <v>1.2</v>
+      </c>
+      <c r="E38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0.9</v>
+      </c>
+      <c r="H38">
+        <v>0.8</v>
+      </c>
+      <c r="I38">
+        <v>0.7</v>
+      </c>
+      <c r="J38">
+        <v>0.7</v>
+      </c>
+      <c r="K38">
+        <v>500</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0.4</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D39">
+        <v>1.2</v>
+      </c>
+      <c r="E39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0.9</v>
+      </c>
+      <c r="H39">
+        <v>0.8</v>
+      </c>
+      <c r="I39">
+        <v>0.7</v>
+      </c>
+      <c r="J39">
+        <v>0.7</v>
+      </c>
+      <c r="K39">
+        <v>1000</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0.4</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40">
+        <v>1.2</v>
+      </c>
+      <c r="E40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0.9</v>
+      </c>
+      <c r="H40">
+        <v>0.8</v>
+      </c>
+      <c r="I40">
+        <v>0.7</v>
+      </c>
+      <c r="J40">
+        <v>0.7</v>
+      </c>
+      <c r="K40">
+        <v>30000</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>0.3</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D41">
+        <v>1.2</v>
+      </c>
+      <c r="E41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0.9</v>
+      </c>
+      <c r="H41">
+        <v>0.8</v>
+      </c>
+      <c r="I41">
+        <v>0.7</v>
+      </c>
+      <c r="J41">
+        <v>0.7</v>
+      </c>
+      <c r="K41">
+        <v>30000</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>0.3</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1.2</v>
+      </c>
+      <c r="E42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0.9</v>
+      </c>
+      <c r="H42">
+        <v>0.8</v>
+      </c>
+      <c r="I42">
+        <v>0.7</v>
+      </c>
+      <c r="J42">
+        <v>0.7</v>
+      </c>
+      <c r="K42">
+        <v>10000</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>0.3</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>0</v>
       </c>
     </row>

--- a/chipSolver/data/options.xlsx
+++ b/chipSolver/data/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s147057\Documents\GitHub\Chips\chipSolver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC7887-B718-40D3-9714-054D5FA00220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F8CDD-EE18-4F7F-B68F-ECE666CE73AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,10 +68,10 @@
     <t>length</t>
   </si>
   <si>
-    <t>half_prop</t>
+    <t>generations</t>
   </si>
   <si>
-    <t>generations</t>
+    <t>plot</t>
   </si>
 </sst>
 </file>
@@ -489,11 +489,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -530,10 +536,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -579,6 +585,12 @@
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
       <c r="O2">
         <v>0.41</v>
       </c>
@@ -623,6 +635,12 @@
       <c r="L3">
         <v>3</v>
       </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
       <c r="O3">
         <v>0.9</v>
       </c>
@@ -667,6 +685,12 @@
       <c r="L4">
         <v>5</v>
       </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
       <c r="O4">
         <v>0.95</v>
       </c>
@@ -710,6 +734,12 @@
       </c>
       <c r="L5">
         <v>10</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
       </c>
       <c r="O5">
         <v>0.96</v>
@@ -755,6 +785,12 @@
       <c r="L6">
         <v>10</v>
       </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
       <c r="O6">
         <v>0.89</v>
       </c>
@@ -799,6 +835,12 @@
       <c r="L7">
         <v>15</v>
       </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
       <c r="O7">
         <v>0.56499999999999995</v>
       </c>
@@ -843,6 +885,12 @@
       <c r="L8">
         <v>20</v>
       </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
       <c r="O8">
         <v>0.09</v>
       </c>
@@ -887,6 +935,12 @@
       <c r="L9">
         <v>5</v>
       </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
       <c r="O9">
         <v>0.92500000000000004</v>
       </c>
@@ -931,6 +985,12 @@
       <c r="L10">
         <v>5</v>
       </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
       <c r="O10">
         <v>0.95499999999999996</v>
       </c>
@@ -975,6 +1035,12 @@
       <c r="L11">
         <v>5</v>
       </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
       <c r="O11">
         <v>0.97499999999999998</v>
       </c>
@@ -1019,6 +1085,12 @@
       <c r="L12">
         <v>5</v>
       </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>30</v>
+      </c>
       <c r="O12">
         <v>0.96499999999999997</v>
       </c>
@@ -1063,6 +1135,12 @@
       <c r="L13">
         <v>5</v>
       </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
       <c r="O13">
         <v>0.93</v>
       </c>
@@ -1107,6 +1185,12 @@
       <c r="L14">
         <v>5</v>
       </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
       <c r="O14">
         <v>0.97</v>
       </c>
@@ -1151,6 +1235,12 @@
       <c r="L15">
         <v>5</v>
       </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
       <c r="O15">
         <v>0.99</v>
       </c>
@@ -1195,6 +1285,12 @@
       <c r="L16">
         <v>5</v>
       </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
       <c r="O16">
         <v>0.94</v>
       </c>
@@ -1239,6 +1335,12 @@
       <c r="L17">
         <v>5</v>
       </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
       <c r="O17">
         <v>0.98499999999999999</v>
       </c>
@@ -1283,6 +1385,12 @@
       <c r="L18">
         <v>5</v>
       </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>30</v>
+      </c>
       <c r="O18">
         <v>0.98499999999999999</v>
       </c>
@@ -1327,6 +1435,12 @@
       <c r="L19">
         <v>5</v>
       </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
       <c r="O19">
         <v>1</v>
       </c>
@@ -1371,6 +1485,12 @@
       <c r="L20">
         <v>10</v>
       </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>30</v>
+      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -1415,11 +1535,11 @@
       <c r="L21">
         <v>10</v>
       </c>
-      <c r="M21">
-        <v>0.1</v>
+      <c r="M21" t="b">
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1465,17 +1585,25 @@
       <c r="L22">
         <v>10</v>
       </c>
-      <c r="M22">
-        <v>0.2</v>
+      <c r="M22" t="b">
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1515,11 +1643,11 @@
       <c r="L24">
         <v>5</v>
       </c>
-      <c r="M24">
-        <v>0.4</v>
+      <c r="M24" t="b">
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1565,11 +1693,11 @@
       <c r="L25">
         <v>10</v>
       </c>
-      <c r="M25">
-        <v>0.1</v>
+      <c r="M25" t="b">
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1615,11 +1743,11 @@
       <c r="L26">
         <v>10</v>
       </c>
-      <c r="M26">
-        <v>0.2</v>
+      <c r="M26" t="b">
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -1665,11 +1793,11 @@
       <c r="L27">
         <v>10</v>
       </c>
-      <c r="M27">
-        <v>0.3</v>
+      <c r="M27" t="b">
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -1715,11 +1843,11 @@
       <c r="L28">
         <v>10</v>
       </c>
-      <c r="M28">
-        <v>0.4</v>
+      <c r="M28" t="b">
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -1765,11 +1893,11 @@
       <c r="L29">
         <v>10</v>
       </c>
-      <c r="M29">
-        <v>0.4</v>
+      <c r="M29" t="b">
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -1815,11 +1943,11 @@
       <c r="L30">
         <v>10</v>
       </c>
-      <c r="M30">
-        <v>0.4</v>
+      <c r="M30" t="b">
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -1865,11 +1993,11 @@
       <c r="L31">
         <v>10</v>
       </c>
-      <c r="M31">
-        <v>0.4</v>
+      <c r="M31" t="b">
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -1915,8 +2043,8 @@
       <c r="L32">
         <v>10</v>
       </c>
-      <c r="M32">
-        <v>0.4</v>
+      <c r="M32" t="b">
+        <v>1</v>
       </c>
       <c r="N32">
         <v>30</v>
@@ -1965,11 +2093,11 @@
       <c r="L33">
         <v>10</v>
       </c>
-      <c r="M33">
-        <v>0.4</v>
+      <c r="M33" t="b">
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2015,11 +2143,11 @@
       <c r="L34">
         <v>10</v>
       </c>
-      <c r="M34">
-        <v>0.4</v>
+      <c r="M34" t="b">
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2065,11 +2193,11 @@
       <c r="L35">
         <v>10</v>
       </c>
-      <c r="M35">
-        <v>0.4</v>
+      <c r="M35" t="b">
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2115,11 +2243,11 @@
       <c r="L36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>0.4</v>
+      <c r="M36" t="b">
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2165,11 +2293,11 @@
       <c r="L37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>0.4</v>
+      <c r="M37" t="b">
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2215,11 +2343,11 @@
       <c r="L38">
         <v>3</v>
       </c>
-      <c r="M38">
-        <v>0.4</v>
+      <c r="M38" t="b">
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2265,11 +2393,11 @@
       <c r="L39">
         <v>3</v>
       </c>
-      <c r="M39">
-        <v>0.4</v>
+      <c r="M39" t="b">
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2315,11 +2443,11 @@
       <c r="L40">
         <v>5</v>
       </c>
-      <c r="M40">
-        <v>0.3</v>
+      <c r="M40" t="b">
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2365,11 +2493,11 @@
       <c r="L41">
         <v>10</v>
       </c>
-      <c r="M41">
-        <v>0.3</v>
+      <c r="M41" t="b">
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2386,28 +2514,28 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>1.1000000000000001</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>10000</v>
@@ -2415,8 +2543,8 @@
       <c r="L42">
         <v>20</v>
       </c>
-      <c r="M42">
-        <v>0.3</v>
+      <c r="M42" t="b">
+        <v>1</v>
       </c>
       <c r="N42">
         <v>0</v>

--- a/chipSolver/data/options.xlsx
+++ b/chipSolver/data/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s147057\Documents\GitHub\Chips\chipSolver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F8CDD-EE18-4F7F-B68F-ECE666CE73AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B573A9E1-6BFF-4AE6-AB7F-D2129BE44443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>10000</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>

--- a/chipSolver/data/options.xlsx
+++ b/chipSolver/data/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s147057\Documents\GitHub\Chips\chipSolver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B573A9E1-6BFF-4AE6-AB7F-D2129BE44443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137986C0-790B-40A5-8CD3-4E31176F62F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2541,7 @@
         <v>10000</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
